--- a/Assets/Resources/MasterData/ParkMaster.xlsx
+++ b/Assets/Resources/MasterData/ParkMaster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\team_Nulla\Team_Nulla_Git\Team_Nulla\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977871AA-7BD8-4553-84B8-6C42464349DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC52F082-D9DC-499D-B88B-20B12474F47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="2325" windowWidth="13965" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="-13725" windowWidth="13965" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Park" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -97,6 +97,10 @@
     <rPh sb="0" eb="2">
       <t>カゴ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>effect</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -445,16 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,8 +473,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -481,8 +490,9 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -495,8 +505,9 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -509,6 +520,7 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
